--- a/Semester 1/ADT lab-Dataset for manipulationn.xlsx
+++ b/Semester 1/ADT lab-Dataset for manipulationn.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haryi\Desktop\ADT\ADT Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4FCFAE-AE53-48E0-89F6-8254162002C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBCA8A4-9EC6-4914-B7FE-10DFE6E92EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0FD9896-2225-4FEF-9113-40A33881BD86}"/>
+    <workbookView minimized="1" xWindow="384" yWindow="384" windowWidth="10140" windowHeight="4740" activeTab="1" xr2:uid="{E0FD9896-2225-4FEF-9113-40A33881BD86}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Exercise 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
   <si>
     <t>Customerno</t>
   </si>
@@ -118,6 +119,171 @@
   </si>
   <si>
     <t>After Trigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROLLNO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NAME         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DOB         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GENDER </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DOA          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BCODE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> John Smith   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1998-05-15  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Male   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020-09-01   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emily Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1999-08-23  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Female </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1997-03-10  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2021-01-15   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emma Davis   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1998-11-30  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ethan Wilson </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1999-07-02  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-03-10   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BNAME            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DNO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computer Science </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Electronics      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mechanical       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Civil            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Electrical       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DNAME          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CCODE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CNAME                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CREDITS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C101  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Database Management     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C102  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced Databases      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C103  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Programming Fundamentals</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C104  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Digital Electronics     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C105  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mechanics               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PCCODE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C101   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C103   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SESS        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GRADE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> APRIL20201   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOVEMBER2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E     </t>
   </si>
 </sst>
 </file>
@@ -125,7 +291,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -220,12 +386,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -235,7 +402,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2088E0EA-603A-41BD-8B72-070B1B02D1DC}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -564,66 +733,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="J1" s="3" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="N1" s="3" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="N1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -640,7 +809,7 @@
       <c r="E3">
         <v>50001</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2">
         <v>45090</v>
       </c>
       <c r="G3">
@@ -681,7 +850,7 @@
       <c r="E4">
         <v>50002</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
         <v>45091</v>
       </c>
       <c r="G4">
@@ -722,7 +891,7 @@
       <c r="E5">
         <v>50003</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>45092</v>
       </c>
       <c r="G5">
@@ -763,7 +932,7 @@
       <c r="E6">
         <v>50004</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="2">
         <v>45090</v>
       </c>
       <c r="G6">
@@ -804,7 +973,7 @@
       <c r="E7">
         <v>50005</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="2">
         <v>45091</v>
       </c>
       <c r="G7">
@@ -836,7 +1005,7 @@
       <c r="E8">
         <v>50006</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="2">
         <v>45095</v>
       </c>
       <c r="G8">
@@ -859,7 +1028,7 @@
       <c r="E9">
         <v>50007</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="2">
         <v>45090</v>
       </c>
       <c r="G9">
@@ -882,7 +1051,7 @@
       <c r="E10">
         <v>50008</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="2">
         <v>45097</v>
       </c>
       <c r="G10">
@@ -905,7 +1074,7 @@
       <c r="E11">
         <v>50009</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="2">
         <v>45091</v>
       </c>
       <c r="G11">
@@ -919,7 +1088,7 @@
       <c r="E12">
         <v>50010</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="2">
         <v>45097</v>
       </c>
       <c r="G12">
@@ -933,7 +1102,7 @@
       <c r="E13">
         <v>50011</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="2">
         <v>45100</v>
       </c>
       <c r="G13">
@@ -995,19 +1164,19 @@
       </c>
     </row>
     <row r="19" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F19" s="6"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F20" s="6"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F21" s="6"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F22" s="6"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F23" s="6"/>
+      <c r="F23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1020,4 +1189,548 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50916EFA-4868-4118-A1B7-6DD177D99040}">
+  <dimension ref="A1:O45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="7">
+        <v>501</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="7">
+        <v>502</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4">
+        <v>503</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>501</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>502</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>503</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>504</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>505</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>201</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>204</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>205</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>103</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>105</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>